--- a/6. Índice y Coincidir.xlsx
+++ b/6. Índice y Coincidir.xlsx
@@ -2334,7 +2334,7 @@
   <dimension ref="B14:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2495,9 @@
   </sheetPr>
   <dimension ref="C14:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3036,11 +3038,11 @@
       </c>
       <c r="F14">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1575</v>
+        <v>1857</v>
       </c>
       <c r="G14" s="31">
         <f ca="1">40613+RAND()*100</f>
-        <v>40674.459909632082</v>
+        <v>40678.099157194658</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -3055,11 +3057,11 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F22" ca="1" si="1">RANDBETWEEN(1000,2000)</f>
-        <v>1329</v>
+        <v>1665</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" ref="G15:G22" ca="1" si="2">40613+RAND()*100</f>
-        <v>40664.817670969125</v>
+        <v>40651.726582389951</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -3074,11 +3076,11 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="G16" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40618.523227514255</v>
+        <v>40652.581390331019</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -3093,11 +3095,11 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40622.431257623277</v>
+        <v>40707.427236731797</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -3112,11 +3114,11 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1611</v>
+        <v>1170</v>
       </c>
       <c r="G18" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40620.192757395322</v>
+        <v>40706.38425896917</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -3131,11 +3133,11 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1201</v>
+        <v>1822</v>
       </c>
       <c r="G19" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40710.483606642541</v>
+        <v>40630.715265167171</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -3150,11 +3152,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>1514</v>
+        <v>1967</v>
       </c>
       <c r="G20" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40683.451245994256</v>
+        <v>40670.111122093753</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -3169,11 +3171,11 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>1216</v>
+        <v>1084</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40639.542556868946</v>
+        <v>40645.056163460664</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -3188,11 +3190,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>1521</v>
+        <v>1684</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40708.388997465736</v>
+        <v>40617.884502309469</v>
       </c>
     </row>
   </sheetData>
@@ -3262,23 +3264,23 @@
       </c>
       <c r="C17" s="25">
         <f ca="1">RANDBETWEEN(35,50)</f>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" ref="D17:G28" ca="1" si="0">RANDBETWEEN(35,50)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="29"/>
@@ -3293,23 +3295,23 @@
       </c>
       <c r="C18" s="25">
         <f t="shared" ref="C18:C28" ca="1" si="1">RANDBETWEEN(35,50)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G18" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="29"/>
@@ -3324,23 +3326,23 @@
       </c>
       <c r="C19" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="29"/>
@@ -3355,7 +3357,7 @@
       </c>
       <c r="C20" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3363,15 +3365,15 @@
       </c>
       <c r="E20" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
-      </c>
-      <c r="G20" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="29"/>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="C21" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3394,15 +3396,15 @@
       </c>
       <c r="E21" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="F21" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
       <c r="G21" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="29"/>
@@ -3417,23 +3419,23 @@
       </c>
       <c r="C22" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="29"/>
@@ -3448,23 +3450,23 @@
       </c>
       <c r="C23" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="29"/>
@@ -3479,7 +3481,7 @@
       </c>
       <c r="C24" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3491,11 +3493,11 @@
       </c>
       <c r="F24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="29"/>
@@ -3510,23 +3512,23 @@
       </c>
       <c r="C25" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="29"/>
@@ -3541,23 +3543,23 @@
       </c>
       <c r="C26" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="29"/>
@@ -3572,11 +3574,11 @@
       </c>
       <c r="C27" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3584,11 +3586,11 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="29"/>
@@ -3603,23 +3605,23 @@
       </c>
       <c r="C28" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="29"/>
@@ -4010,7 +4012,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <f ca="1">RANDBETWEEN(0,60000)</f>
-        <v>23367</v>
+        <v>41560</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="42" t="str">

--- a/6. Índice y Coincidir.xlsx
+++ b/6. Índice y Coincidir.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2334,7 +2334,7 @@
   <dimension ref="B14:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,9 +2495,7 @@
   </sheetPr>
   <dimension ref="C14:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2714,7 +2712,7 @@
   <dimension ref="A17:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2952,9 @@
   </sheetPr>
   <dimension ref="B8:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3038,11 +3038,11 @@
       </c>
       <c r="F14">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1857</v>
+        <v>1313</v>
       </c>
       <c r="G14" s="31">
         <f ca="1">40613+RAND()*100</f>
-        <v>40678.099157194658</v>
+        <v>40680.631872378457</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -3057,11 +3057,11 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F22" ca="1" si="1">RANDBETWEEN(1000,2000)</f>
-        <v>1665</v>
+        <v>1893</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" ref="G15:G22" ca="1" si="2">40613+RAND()*100</f>
-        <v>40651.726582389951</v>
+        <v>40666.456909273853</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -3076,11 +3076,11 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>1187</v>
+        <v>1624</v>
       </c>
       <c r="G16" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40652.581390331019</v>
+        <v>40651.880507284659</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1200</v>
+        <v>1454</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40707.427236731797</v>
+        <v>40659.969135624546</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1170</v>
+        <v>1989</v>
       </c>
       <c r="G18" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40706.38425896917</v>
+        <v>40631.917175718045</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -3133,11 +3133,11 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1822</v>
+        <v>1884</v>
       </c>
       <c r="G19" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40630.715265167171</v>
+        <v>40666.62089394447</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>1967</v>
+        <v>1113</v>
       </c>
       <c r="G20" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40670.111122093753</v>
+        <v>40685.822770972052</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -3171,11 +3171,11 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>1084</v>
+        <v>1394</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40645.056163460664</v>
+        <v>40674.832316583423</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -3190,11 +3190,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>1684</v>
+        <v>1625</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>40617.884502309469</v>
+        <v>40641.683368895647</v>
       </c>
     </row>
   </sheetData>
@@ -3264,23 +3264,23 @@
       </c>
       <c r="C17" s="25">
         <f ca="1">RANDBETWEEN(35,50)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" ref="D17:G28" ca="1" si="0">RANDBETWEEN(35,50)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="29"/>
@@ -3295,23 +3295,23 @@
       </c>
       <c r="C18" s="25">
         <f t="shared" ref="C18:C28" ca="1" si="1">RANDBETWEEN(35,50)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="E18" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
       <c r="F18" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="29"/>
@@ -3326,23 +3326,23 @@
       </c>
       <c r="C19" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="29"/>
@@ -3357,11 +3357,11 @@
       </c>
       <c r="C20" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" ca="1" si="0"/>
@@ -3388,23 +3388,23 @@
       </c>
       <c r="C21" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="29"/>
@@ -3419,23 +3419,23 @@
       </c>
       <c r="C22" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="29"/>
@@ -3450,23 +3450,23 @@
       </c>
       <c r="C23" s="25">
         <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="D23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
       <c r="G23" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="29"/>
@@ -3481,23 +3481,23 @@
       </c>
       <c r="C24" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="29"/>
@@ -3512,23 +3512,23 @@
       </c>
       <c r="C25" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
-      </c>
-      <c r="G25" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="29"/>
@@ -3543,23 +3543,23 @@
       </c>
       <c r="C26" s="25">
         <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-      <c r="D26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
       <c r="F26" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="29"/>
@@ -3574,23 +3574,23 @@
       </c>
       <c r="C27" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="29"/>
@@ -3605,23 +3605,23 @@
       </c>
       <c r="C28" s="25">
         <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
-      </c>
-      <c r="D28" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="29"/>
@@ -4012,7 +4012,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <f ca="1">RANDBETWEEN(0,60000)</f>
-        <v>41560</v>
+        <v>29792</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="42" t="str">
